--- a/medicine/Pharmacie/Louis_Lewin/Louis_Lewin.xlsx
+++ b/medicine/Pharmacie/Louis_Lewin/Louis_Lewin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Lewin (né le 9 novembre 1850 à Tuchel, arrondissement de Konitz (de) ; mort le 1er décembre 1929 à Berlin) était un pharmacologue allemand qui travaillait sur les substances psychédéliques et les produits psychotropes. Son travail est à l'origine de la toxicologie moderne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1877, il a été, avec le Dr Levinstein, à l'origine de la première description de ce que l'on appelle maintenant la toxicomanie, même si cette première description concernait la morphine.
 Il publia aussi la première étude sur le peyotl en 1886.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lewin Louis, Traité de toxicologie, Ed. Doin, Paris, 1903.
 Lewin Louis, Phantastica, Ed. Payot, Paris, 1927.</t>
